--- a/NLP/entity_dictionaries/KSHS__mapping.xlsx
+++ b/NLP/entity_dictionaries/KSHS__mapping.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="23040" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="23040" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,9 +36,6 @@
     <t>case_sensitive</t>
   </si>
   <si>
-    <t>ks.gov</t>
-  </si>
-  <si>
     <t>KS_State_Historic_Sites</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Legislative branch agency responsible for drafting legislation and perform legal research for the legislature.</t>
+  </si>
+  <si>
+    <t>kshs.org</t>
   </si>
 </sst>
 </file>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,461 +558,461 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>5</v>
+      <c r="E10" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="C13" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>5</v>
+      <c r="E14" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C15" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="C20" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C21" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="C23" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="C24" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="C25" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>5</v>
+      <c r="E26" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C27" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="C28" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
